--- a/results.xlsx
+++ b/results.xlsx
@@ -94,8 +94,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -140,7 +152,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -161,6 +173,12 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -181,6 +199,12 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -274,23 +298,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.13976</c:v>
+                  <c:v>1.706671862718548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47035</c:v>
+                  <c:v>2.475853279929476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.89834</c:v>
+                  <c:v>1.330537189231498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.115765</c:v>
+                  <c:v>1.255682853636905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7973</c:v>
+                  <c:v>0.811893165750196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.327475</c:v>
+                  <c:v>0.811893165750196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,23 +366,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.1084</c:v>
+                  <c:v>1.700421195994855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5241</c:v>
+                  <c:v>2.494404054979003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.80665</c:v>
+                  <c:v>1.641917356176977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.720600000000001</c:v>
+                  <c:v>1.799846497814262</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5852</c:v>
+                  <c:v>1.485521017522406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.585649999999999</c:v>
+                  <c:v>1.395483617245876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,25 +862,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.286702706337722</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.21782273916422</c:v>
+                  <c:v>0.853335931359274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.078367619653073</c:v>
+                  <c:v>0.618963319982369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.632578473775953</c:v>
+                  <c:v>0.22175619820525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.48249268334269</c:v>
+                  <c:v>0.156960356704613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.243360088841889</c:v>
+                  <c:v>0.0811893165750196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.117020345962701</c:v>
+                  <c:v>0.0676577638125163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,25 +930,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.569151260487085</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.49867777469513</c:v>
+                  <c:v>0.850210597997427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.364058073006765</c:v>
+                  <c:v>0.623601013744751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.006351303776284</c:v>
+                  <c:v>0.273652892696163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.921296740823471</c:v>
+                  <c:v>0.224980812226783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.741030061177042</c:v>
+                  <c:v>0.148552101752241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.634694756746389</c:v>
+                  <c:v>0.116290301437156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1478,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1502,16 +1532,23 @@
       <c r="C5">
         <v>5.1677</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5">
-        <f>LOG((1/C5) * (1/B5)) + 3</f>
-        <v>2.2867027063377221</v>
+        <f>D5/B5</f>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>26.968</v>
       </c>
+      <c r="H5">
+        <f>26.968/G5</f>
+        <v>1</v>
+      </c>
       <c r="I5">
-        <f>LOG((1/G5)*(1/B5))+3</f>
-        <v>1.5691512604870845</v>
+        <f>H5/B5</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1522,23 +1559,23 @@
         <v>3.0279400000000001</v>
       </c>
       <c r="D6">
-        <f>(C6-C5) /(B5-B6)</f>
-        <v>2.1397599999999999</v>
+        <f>C5/C6</f>
+        <v>1.7066718627185478</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="0">LOG((1/C6) * (1/B6)) + 3</f>
-        <v>2.2178227391642205</v>
+        <f>D6/B6</f>
+        <v>0.85333593135927388</v>
       </c>
       <c r="G6">
         <v>15.8596</v>
       </c>
       <c r="H6">
-        <f>(G6-G5) / (B5-B6)</f>
-        <v>11.1084</v>
+        <f>26.968/G6</f>
+        <v>1.7004211959948548</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I11" si="1">LOG((1/G6)*(1/B6))+3</f>
-        <v>1.4986777746951299</v>
+        <f t="shared" ref="I6:I11" si="0">H6/B6</f>
+        <v>0.85021059799742738</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1549,23 +1586,23 @@
         <v>2.08724</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="2">(C7-C6) /(B6-B7)</f>
-        <v>0.47035000000000005</v>
+        <f>C5/C7</f>
+        <v>2.4758532799294763</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2.0783676196530729</v>
+        <f t="shared" ref="E7:E11" si="1">D7/B7</f>
+        <v>0.61896331998236909</v>
       </c>
       <c r="G7">
         <v>10.811400000000001</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H11" si="3">(G7-G6) / (B6-B7)</f>
-        <v>2.5240999999999998</v>
+        <f t="shared" ref="H7:H11" si="2">26.968/G7</f>
+        <v>2.4944040549790034</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>1.3640580730067646</v>
+        <f t="shared" si="0"/>
+        <v>0.62360101374475085</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1576,23 +1613,23 @@
         <v>3.8839199999999998</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
-        <v>-0.89833999999999992</v>
+        <f>C5/C8</f>
+        <v>1.3305371892314981</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.6325784737759528</v>
+        <f t="shared" si="1"/>
+        <v>0.22175619820524969</v>
       </c>
       <c r="G8">
         <v>16.424700000000001</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
-        <v>-2.8066500000000003</v>
+        <f t="shared" si="2"/>
+        <v>1.6419173561769773</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>1.0063513037762843</v>
+        <f t="shared" si="0"/>
+        <v>0.27365289269616289</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1603,23 +1640,23 @@
         <v>4.1154500000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>-0.11576500000000012</v>
+        <f>C5/C9</f>
+        <v>1.2556828536369049</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.4824926833426901</v>
+        <f t="shared" si="1"/>
+        <v>0.15696035670461311</v>
       </c>
       <c r="G9">
         <v>14.983499999999999</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.72060000000000102</v>
+        <f t="shared" si="2"/>
+        <v>1.7998464978142625</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.92129674082347135</v>
+        <f t="shared" si="0"/>
+        <v>0.22498081222678282</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1630,23 +1667,23 @@
         <v>5.7100499999999998</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>-0.7972999999999999</v>
+        <f>C5/C11</f>
+        <v>0.81189316575019632</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.2433600888418888</v>
+        <f t="shared" si="1"/>
+        <v>8.1189316575019627E-2</v>
       </c>
       <c r="G10">
         <v>18.1539</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
-        <v>-1.5852000000000004</v>
+        <f t="shared" si="2"/>
+        <v>1.4855210175224056</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.74103006117704195</v>
+        <f t="shared" si="0"/>
+        <v>0.14855210175224057</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1657,23 +1694,23 @@
         <v>6.3650000000000002</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>-0.32747500000000018</v>
+        <f>C5/C11</f>
+        <v>0.81189316575019632</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1.1170203459627008</v>
+        <f t="shared" si="1"/>
+        <v>6.7657763812516356E-2</v>
       </c>
       <c r="G11">
         <v>19.325199999999999</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
-        <v>-0.58564999999999934</v>
+        <f t="shared" si="2"/>
+        <v>1.395483617245876</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0.6346947567463892</v>
+        <f t="shared" si="0"/>
+        <v>0.11629030143715634</v>
       </c>
     </row>
   </sheetData>
